--- a/0_Data/9_Supplementary Information/Water.Codes.All.xlsx
+++ b/0_Data/9_Supplementary Information/Water.Codes.All.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="1036">
   <si>
     <t xml:space="preserve">Country_long</t>
   </si>
@@ -3093,6 +3093,33 @@
   </si>
   <si>
     <t xml:space="preserve">Otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tap water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public tap water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drilled well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protected dug well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unprotected dug well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protected stream water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unprotected stream water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bought water</t>
   </si>
 </sst>
 </file>
@@ -16938,7 +16965,9 @@
       <c r="C996" t="s">
         <v>912</v>
       </c>
-      <c r="D996"/>
+      <c r="D996" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" t="s">
@@ -16950,7 +16979,9 @@
       <c r="C997" t="s">
         <v>913</v>
       </c>
-      <c r="D997"/>
+      <c r="D997" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" t="s">
@@ -16962,7 +16993,9 @@
       <c r="C998" t="s">
         <v>914</v>
       </c>
-      <c r="D998"/>
+      <c r="D998" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" t="s">
@@ -16974,7 +17007,9 @@
       <c r="C999" t="s">
         <v>915</v>
       </c>
-      <c r="D999"/>
+      <c r="D999" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" t="s">
@@ -16986,7 +17021,9 @@
       <c r="C1000" t="s">
         <v>916</v>
       </c>
-      <c r="D1000"/>
+      <c r="D1000" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" t="s">
@@ -16998,7 +17035,9 @@
       <c r="C1001" t="s">
         <v>917</v>
       </c>
-      <c r="D1001"/>
+      <c r="D1001" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" t="s">
@@ -17010,7 +17049,9 @@
       <c r="C1002" t="s">
         <v>918</v>
       </c>
-      <c r="D1002"/>
+      <c r="D1002" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" t="s">
@@ -17022,7 +17063,9 @@
       <c r="C1003" t="s">
         <v>919</v>
       </c>
-      <c r="D1003"/>
+      <c r="D1003" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" t="s">
@@ -17034,7 +17077,9 @@
       <c r="C1004" t="s">
         <v>920</v>
       </c>
-      <c r="D1004"/>
+      <c r="D1004" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" t="s">
@@ -17046,7 +17091,9 @@
       <c r="C1005" t="s">
         <v>921</v>
       </c>
-      <c r="D1005"/>
+      <c r="D1005" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" t="s">
@@ -17058,7 +17105,9 @@
       <c r="C1006" t="s">
         <v>922</v>
       </c>
-      <c r="D1006"/>
+      <c r="D1006" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" t="s">
@@ -21138,6 +21187,146 @@
       </c>
       <c r="D1308" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>342</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
